--- a/NWhangtagSample.xlsx
+++ b/NWhangtagSample.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggy/rou94980-HangtagChangePage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27AB26-5529-DF42-AD84-9BBFDEFE7E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId4"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Brand</t>
   </si>
@@ -103,28 +112,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="AGaramond"/>
@@ -133,37 +129,43 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="22"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="16"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -341,179 +343,231 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff76923c"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF76923C"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -529,24 +583,32 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 2" descr="圖片 2"/>
+        <xdr:cNvPr id="2" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect l="1385" t="24366" r="57804" b="12890"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="83" r="83"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1183820" y="-1"/>
-          <a:ext cx="2393497" cy="698163"/>
+          <a:off x="1183820" y="0"/>
+          <a:ext cx="2393496" cy="688637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,9 +635,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>15307</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 3"/>
+        <xdr:cNvPr id="3" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -594,7 +662,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -618,7 +686,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1600" u="none">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="77933C"/>
               </a:solidFill>
@@ -630,7 +698,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1600" u="none">
+            <a:rPr sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="77933C"/>
               </a:solidFill>
@@ -651,7 +719,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office 佈景主題">
       <a:dk1>
@@ -777,7 +845,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -786,7 +854,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -795,7 +863,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -869,7 +937,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -877,7 +945,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -895,7 +963,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +992,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1017,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1042,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1067,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1092,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1117,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1142,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1167,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1192,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,9 +1205,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1154,7 +1228,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1162,7 +1236,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1180,7 +1254,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +1279,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1304,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1329,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1354,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1379,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1404,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1429,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1454,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,7 +1479,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1418,9 +1492,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1434,7 +1514,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1452,7 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1481,7 +1561,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1506,7 +1586,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,7 +1611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1636,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1581,7 +1661,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1606,7 +1686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1631,7 +1711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,7 +1736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1681,7 +1761,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1694,321 +1774,330 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.67188" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" t="s" s="12">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>45369</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" t="s" s="12">
+      <c r="C5" s="12"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s" s="16">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" t="s" s="12">
+      <c r="C6" s="15"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="C7" s="15"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="16">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" t="s" s="12">
+      <c r="C8" s="15"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="16">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="s" s="12">
+      <c r="C9" s="16"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="16">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" t="s" s="12">
+      <c r="C10" s="15"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="16">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" t="s" s="19">
+      <c r="C11" s="15"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="16">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" t="s" s="12">
+      <c r="C12" s="15"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s" s="16">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" t="s" s="12">
+      <c r="C13" s="15"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s" s="20">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" t="s" s="12">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s" s="21">
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" t="s" s="23">
+      <c r="C15" s="20"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A16" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" t="s" s="25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" t="s" s="25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" t="s" s="29">
+      <c r="B18" s="39"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" t="s" s="32">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" ht="24" customHeight="1">
-      <c r="A30" t="s" s="38">
+      <c r="B21" s="43"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1">
+      <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2019,10 +2108,11 @@
     <mergeCell ref="A21:B29"/>
     <mergeCell ref="A16:B16"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="59" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="59" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000NEW WIDE GARMENT CO., LTD </oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000NEW WIDE GARMENT CO., LTD</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/NWhangtagSample.xlsx
+++ b/NWhangtagSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggy/rou94980-HangtagChangePage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27AB26-5529-DF42-AD84-9BBFDEFE7E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCE34A-F554-E14F-9FE4-AB813200A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54940" yWindow="3180" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1793,10 +1793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16.5" customHeight="1"/>
@@ -2110,7 +2113,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="59" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000NEW WIDE GARMENT CO., LTD</oddFooter>
   </headerFooter>
